--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_18_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_18_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33843.38977940268</v>
+        <v>6734834.566101134</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33843.38977940268</v>
+        <v>6734834.566101134</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18998.05640233322</v>
+        <v>1146088.991918178</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18998.05640233322</v>
+        <v>1146088.991918178</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1343040777.38019</v>
+        <v>54723583.46013723</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12330.91954107935</v>
+        <v>1329895.00596798</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23285.97558772374</v>
+        <v>2431849.916258999</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34241.03163436812</v>
+        <v>3533804.826550021</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45769.1453320627</v>
+        <v>4599098.102647653</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>57297.25902975726</v>
+        <v>5664391.378745284</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>68825.37272745185</v>
+        <v>6729684.654842913</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>80353.4864251464</v>
+        <v>7794977.93094054</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>91881.60012284096</v>
+        <v>8860271.207038166</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>103203.4421625347</v>
+        <v>9924726.076572372</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>114557.3569294947</v>
+        <v>10995563.41883456</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>125911.2716964581</v>
+        <v>12066400.7610964</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>137265.1864634222</v>
+        <v>13137238.10335815</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>148619.1012303848</v>
+        <v>14208075.44562007</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>159973.0159973454</v>
+        <v>15278912.78788215</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>171326.9307643118</v>
+        <v>16349750.13014365</v>
       </c>
     </row>
   </sheetData>
